--- a/vstack_example.xlsx
+++ b/vstack_example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6961A9F-C355-4A79-91B9-2234430AD26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E499868D-685B-43F2-B374-4CEF58A09D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D0C07D8-623D-49FA-B375-F96582E010A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7D0C07D8-623D-49FA-B375-F96582E010A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>inv_num</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>sheetname</t>
+  </si>
+  <si>
+    <t>cust_a</t>
+  </si>
+  <si>
+    <t>cust_b</t>
+  </si>
+  <si>
+    <t>cust_c</t>
   </si>
 </sst>
 </file>
@@ -444,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BC329B-948B-4CDE-B264-89798B4CD513}">
   <dimension ref="B3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -480,7 +489,7 @@
       </c>
       <c r="D4">
         <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>516</v>
+        <v>818</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -497,7 +506,7 @@
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D8" ca="1" si="1">RANDBETWEEN(100,1000)</f>
-        <v>710</v>
+        <v>967</v>
       </c>
       <c r="E5" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -514,7 +523,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>330</v>
+        <v>433</v>
       </c>
       <c r="E6" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -531,7 +540,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>929</v>
+        <v>541</v>
       </c>
       <c r="E7" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -548,7 +557,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>723</v>
+        <v>424</v>
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -600,7 +609,7 @@
       </c>
       <c r="D4">
         <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>927</v>
+        <v>195</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -617,7 +626,7 @@
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D11" ca="1" si="1">RANDBETWEEN(100,1000)</f>
-        <v>375</v>
+        <v>617</v>
       </c>
       <c r="E5" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -634,7 +643,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>627</v>
+        <v>387</v>
       </c>
       <c r="E6" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -651,7 +660,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>376</v>
+        <v>757</v>
       </c>
       <c r="E7" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -668,7 +677,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>587</v>
+        <v>917</v>
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -685,7 +694,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>138</v>
+        <v>737</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -702,7 +711,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -719,7 +728,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>813</v>
+        <v>486</v>
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -735,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBED044A-DA30-4B0C-8CAF-CBDD8012973A}">
   <dimension ref="B3:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,9 +769,12 @@
         <f>3000+ROW()-3</f>
         <v>3001</v>
       </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
       <c r="D4">
         <f ca="1">RANDBETWEEN(100,1000)</f>
-        <v>580</v>
+        <v>832</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -774,9 +786,12 @@
         <f t="shared" ref="B5:B13" si="0">3000+ROW()-3</f>
         <v>3002</v>
       </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
       <c r="D5">
         <f t="shared" ref="D5:D13" ca="1" si="1">RANDBETWEEN(100,1000)</f>
-        <v>313</v>
+        <v>418</v>
       </c>
       <c r="E5" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -788,9 +803,12 @@
         <f t="shared" si="0"/>
         <v>3003</v>
       </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>596</v>
+        <v>305</v>
       </c>
       <c r="E6" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -802,9 +820,12 @@
         <f t="shared" si="0"/>
         <v>3004</v>
       </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>482</v>
+        <v>859</v>
       </c>
       <c r="E7" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -816,9 +837,12 @@
         <f t="shared" si="0"/>
         <v>3005</v>
       </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>539</v>
+        <v>717</v>
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -830,9 +854,12 @@
         <f t="shared" si="0"/>
         <v>3006</v>
       </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>258</v>
+        <v>863</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -844,9 +871,12 @@
         <f t="shared" si="0"/>
         <v>3007</v>
       </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>805</v>
+        <v>364</v>
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -858,9 +888,12 @@
         <f t="shared" si="0"/>
         <v>3008</v>
       </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>583</v>
+        <v>895</v>
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -872,9 +905,12 @@
         <f t="shared" si="0"/>
         <v>3009</v>
       </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>113</v>
+        <v>698</v>
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
@@ -886,9 +922,12 @@
         <f t="shared" si="0"/>
         <v>3010</v>
       </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>528</v>
+        <v>898</v>
       </c>
       <c r="E13" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">_xlfn.TEXTAFTER(CELL("filename",$A$1),"]")</f>
